--- a/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
+++ b/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TPPSCE" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,29 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Crude Oil</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Lignite</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,9 +366,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
       </c>
       <c r="B1" s="1" t="n">
         <v>1970</v>
@@ -547,9 +526,11 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Crude Oil</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>6820</v>
@@ -699,13 +680,15 @@
         <v>34203.2436774592</v>
       </c>
       <c r="AY2" t="n">
-        <v>32169.26645055999</v>
-      </c>
-      <c r="AZ2" t="s"/>
+        <v>32169.26645056</v>
+      </c>
+      <c r="AZ2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:52">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Natural Gas</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1450</v>
@@ -840,7 +823,7 @@
         <v>35406.881</v>
       </c>
       <c r="AT3" t="n">
-        <v>33657.43900000001</v>
+        <v>33657.439</v>
       </c>
       <c r="AU3" t="n">
         <v>32249.216</v>
@@ -857,11 +840,13 @@
       <c r="AY3" t="n">
         <v>31184.2243860032</v>
       </c>
-      <c r="AZ3" t="s"/>
+      <c r="AZ3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:52">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Electricity</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>27666</v>
@@ -1013,47 +998,49 @@
       <c r="AY4" t="n">
         <v>340578.57</v>
       </c>
-      <c r="AZ4" t="s"/>
+      <c r="AZ4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:52">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
-      <c r="Z5" t="s"/>
-      <c r="AA5" t="s"/>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
-      <c r="AD5" t="s"/>
-      <c r="AE5" t="s"/>
-      <c r="AF5" t="s"/>
-      <c r="AG5" t="s"/>
-      <c r="AH5" t="s"/>
-      <c r="AI5" t="s"/>
-      <c r="AJ5" t="s"/>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Coal</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="n">
         <v>407.04</v>
       </c>
@@ -1076,7 +1063,7 @@
         <v>539.95</v>
       </c>
       <c r="AR5" t="n">
-        <v>556.4019999999999</v>
+        <v>556.402</v>
       </c>
       <c r="AS5" t="n">
         <v>565.765</v>
@@ -1094,52 +1081,54 @@
         <v>675.4</v>
       </c>
       <c r="AX5" t="n">
-        <v>728.7180000000001</v>
+        <v>728.718</v>
       </c>
       <c r="AY5" t="n">
         <v>730.873</v>
       </c>
-      <c r="AZ5" t="s"/>
+      <c r="AZ5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:52">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
-      <c r="Z6" t="s"/>
-      <c r="AA6" t="s"/>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="s"/>
-      <c r="AE6" t="s"/>
-      <c r="AF6" t="s"/>
-      <c r="AG6" t="s"/>
-      <c r="AH6" t="s"/>
-      <c r="AI6" t="s"/>
-      <c r="AJ6" t="s"/>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lignite</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="n">
         <v>30.23</v>
       </c>
@@ -1185,7 +1174,7 @@
       <c r="AY6" t="n">
         <v>42.103</v>
       </c>
-      <c r="AZ6" t="s"/>
+      <c r="AZ6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
+++ b/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TPPSCE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TPPSCE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +72,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +91,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,830 +388,737 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>1970</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1971</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1972</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1973</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1974</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1975</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1976</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1977</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1978</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1979</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1980</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1981</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1982</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1983</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1984</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1985</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1986</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1987</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>1988</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>1989</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>1990</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>1991</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>1992</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>1993</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>1994</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>1995</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>1996</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>1997</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>1998</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>1999</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>2000</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>2001</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>2002</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>2003</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>2004</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>2005</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>2006</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>2007</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>2008</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>2009</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>2011</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>2012</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>2013</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>2014</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>2015</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="1">
         <v>2016</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="1">
         <v>2017</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="1">
         <v>2018</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="1">
         <v>2019</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Crude Oil</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:52">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>6820</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>7299</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>7321</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>7189</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>7684</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>8450</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>8898</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>10763</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>11633</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>11766</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>10510</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>16194</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>21063</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>26020</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>28990</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>30170</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>30480</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>30357</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>32040</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>34087</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>33020</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>30346</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>26950</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>27026</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>32239</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>35170</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>32900</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>33858</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>32722</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>31949</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>32426</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>32030</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>33040</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>33370</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>33980</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>32190</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>33990</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>34118</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>33506</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>33690</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>37680</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>38090</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>37860</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>37788.441</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>37460.998</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>36941.752</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>36008.829</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>35684.333</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>34203.2436774592</v>
       </c>
-      <c r="AY2" t="n">
-        <v>32169.26645056</v>
-      </c>
-      <c r="AZ2" t="inlineStr"/>
+      <c r="AY2">
+        <v>32169.26645055999</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Natural Gas</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:52">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>1450</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1535</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1565</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1713</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2041</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2370</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2428</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>2839</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>2812</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>2767</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>2360</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>3851</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>4936</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>5961</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>7241</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>8130</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>9853</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>11467</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>13217</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>16988</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>18000</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>18645</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>18060</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>18335</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>19468</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>22640</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>23256</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>26401</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>27428</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>28446</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>29477</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>29710</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>31390</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>31960</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>31760</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>32200</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>31750</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>32417</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>32850</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>47500</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>52220</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>47560</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>40680</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>35406.881</v>
       </c>
-      <c r="AT3" t="n">
-        <v>33657.439</v>
-      </c>
-      <c r="AU3" t="n">
+      <c r="AT3">
+        <v>33657.43900000001</v>
+      </c>
+      <c r="AU3">
         <v>32249.216</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>31896.702</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>32649.307</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>32873.36989356649</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>31184.2243860032</v>
       </c>
-      <c r="AZ3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:52">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>27666</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>29214</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>28329</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>31368</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>30081</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>35928</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>38088</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>40279</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>49929</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>48354</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>49543</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>52586</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>50396</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>53500</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>58023</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>56003</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>58862</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>52479</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>63690</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>66741</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>77782</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>78282</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>76595</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>75861</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>88360</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>80561</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>77972</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>84665</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>94846</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>94005</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>91264</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>93054</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>83404</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>93022</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>101621</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>118818</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>142163.75</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>162553.716364183</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>152886</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>159642.84</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>179926.46</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>214024.08</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>204035.31</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>234595.01</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>238908.43</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>224571.114911498</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>241841.64</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>266308.3</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>299465</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>340578.57</v>
       </c>
-      <c r="AZ4" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Coal</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="n">
+    <row r="5" spans="1:52">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5">
         <v>407.04</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>430.83</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>457.082</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>492.757</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>532.042</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>532.694</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>539.95</v>
       </c>
-      <c r="AR5" t="n">
-        <v>556.402</v>
-      </c>
-      <c r="AS5" t="n">
+      <c r="AR5">
+        <v>556.4019999999999</v>
+      </c>
+      <c r="AS5">
         <v>565.765</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>612.4400000000001</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>639.23</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>657.8680000000001</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>675.4</v>
       </c>
-      <c r="AX5" t="n">
-        <v>728.718</v>
-      </c>
-      <c r="AY5" t="n">
+      <c r="AX5">
+        <v>728.7180000000001</v>
+      </c>
+      <c r="AY5">
         <v>730.873</v>
       </c>
-      <c r="AZ5" t="inlineStr"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lignite</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="n">
+    <row r="6" spans="1:52">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6">
         <v>30.23</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>31.29</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>33.98</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>32.421</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>34.071</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>37.733</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>42.332</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>46.453</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>44.271</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>48.27</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>43.842</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>45.23</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>46.644</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>44.283</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>42.103</v>
       </c>
-      <c r="AZ6" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
+++ b/data/534/MOSPI/KAPSARC/TPPSCE_historical.xlsx
@@ -1,63 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TPPSCE" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TPPSCE" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Crude Oil</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Lignite</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -91,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -388,737 +353,830 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AZ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Crude Oil</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>6820</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>7299</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>7321</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>7189</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>7684</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>8450</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>8898</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>10763</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>11633</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>11766</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>10510</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>16194</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>21063</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>26020</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>28990</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>30170</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>30480</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>30357</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>32040</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>34087</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>33020</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>30346</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>26950</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>27026</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>32239</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>35170</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>32900</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>33858</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>32722</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>31949</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>32426</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>32030</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>33040</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>33370</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>33980</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>32190</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>33990</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>34118</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>33506</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>33690</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>37680</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>38090</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>37860</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>37788.441</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>37460.998</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>36941.752</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>36008.829</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>35684.333</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>34203.2436774592</v>
       </c>
-      <c r="AY2">
-        <v>32169.26645055999</v>
-      </c>
+      <c r="AY2" t="n">
+        <v>32169.26645056</v>
+      </c>
+      <c r="AZ2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:52">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Natural Gas</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1450</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1535</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1565</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1713</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>2041</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>2370</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>2428</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>2839</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>2812</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>2767</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>2360</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>3851</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>4936</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>5961</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>7241</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>8130</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>9853</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>11467</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>13217</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>16988</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>18000</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>18645</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>18060</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>18335</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>19468</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>22640</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>23256</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>26401</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>27428</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>28446</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>29477</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>29710</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>31390</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>31960</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>31760</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>32200</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>31750</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>32417</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>32850</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>47500</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>52220</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>47560</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>40680</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>35406.881</v>
       </c>
-      <c r="AT3">
-        <v>33657.43900000001</v>
-      </c>
-      <c r="AU3">
+      <c r="AT3" t="n">
+        <v>33657.439</v>
+      </c>
+      <c r="AU3" t="n">
         <v>32249.216</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>31896.702</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>32649.307</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>32873.36989356649</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>31184.2243860032</v>
       </c>
+      <c r="AZ3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:52">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Electricity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>27666</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>29214</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>28329</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>31368</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>30081</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>35928</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>38088</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>40279</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>49929</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>48354</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>49543</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>52586</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>50396</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>53500</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>58023</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>56003</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>58862</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>52479</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>63690</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>66741</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>77782</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>78282</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>76595</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>75861</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>88360</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>80561</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>77972</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>84665</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>94846</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>94005</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>91264</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>93054</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>83404</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>93022</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>101621</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>118818</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>142163.75</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>162553.716364183</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>152886</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>159642.84</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>179926.46</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>214024.08</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>204035.31</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>234595.01</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>238908.43</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>224571.114911498</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>241841.64</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>266308.3</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>299465</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>340578.57</v>
       </c>
+      <c r="AZ4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:52">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Coal</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
         <v>407.04</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>430.83</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>457.082</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>492.757</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>532.042</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>532.694</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>539.95</v>
       </c>
-      <c r="AR5">
-        <v>556.4019999999999</v>
-      </c>
-      <c r="AS5">
+      <c r="AR5" t="n">
+        <v>556.402</v>
+      </c>
+      <c r="AS5" t="n">
         <v>565.765</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>612.4400000000001</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>639.23</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>657.8680000000001</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>675.4</v>
       </c>
-      <c r="AX5">
-        <v>728.7180000000001</v>
-      </c>
-      <c r="AY5">
+      <c r="AX5" t="n">
+        <v>728.718</v>
+      </c>
+      <c r="AY5" t="n">
         <v>730.873</v>
       </c>
+      <c r="AZ5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:52">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lignite</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="n">
         <v>30.23</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>31.29</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>33.98</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>32.421</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>34.071</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>37.733</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>42.332</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>46.453</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>44.271</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>48.27</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>43.842</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>45.23</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>46.644</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>44.283</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>42.103</v>
       </c>
+      <c r="AZ6" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>